--- a/data/s_vals/2024/crawford_brandon.xlsx
+++ b/data/s_vals/2024/crawford_brandon.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.004533508889512</v>
+        <v>0.3048080303191223</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0665966157968092</v>
+        <v>0.002777888934908601</v>
       </c>
       <c r="D2" t="n">
-        <v>0.218472785105742</v>
+        <v>0.1575252929769615</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8325562821609895</v>
+        <v>8.660232485948974</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.122159191953052</v>
+        <v>9.125343698179966</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2024/crawford_brandon.xlsx
+++ b/data/s_vals/2024/crawford_brandon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>sum</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Save</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -488,6 +493,9 @@
       </c>
       <c r="G2" t="n">
         <v>9.125343698179966</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2024/crawford_brandon.xlsx
+++ b/data/s_vals/2024/crawford_brandon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,11 +464,6 @@
           <t>sum</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Save</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -493,9 +488,6 @@
       </c>
       <c r="G2" t="n">
         <v>9.125343698179966</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2024/crawford_brandon.xlsx
+++ b/data/s_vals/2024/crawford_brandon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>sum</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Save</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -488,6 +493,9 @@
       </c>
       <c r="G2" t="n">
         <v>9.125343698179966</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2024/crawford_brandon.xlsx
+++ b/data/s_vals/2024/crawford_brandon.xlsx
@@ -477,25 +477,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3048080303191223</v>
+        <v>0.3464964993005633</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002777888934908601</v>
+        <v>0.004309184025731883</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1575252929769615</v>
+        <v>0.1529057820181812</v>
       </c>
       <c r="E2" t="n">
-        <v>8.660232485948974</v>
+        <v>6.48142807727062</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>9.125343698179966</v>
+        <v>6.985139542615096</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
